--- a/data.xlsx
+++ b/data.xlsx
@@ -9,10 +9,38 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>favourite</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Mollie</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Poppy</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,12 +377,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -369,16 +466,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>